--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2056.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2056.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164574050288596</v>
+        <v>1.07851779460907</v>
       </c>
       <c r="B1">
-        <v>2.694039555254184</v>
+        <v>2.5318443775177</v>
       </c>
       <c r="C1">
-        <v>5.094339552635211</v>
+        <v>4.784962177276611</v>
       </c>
       <c r="D1">
-        <v>2.736075473927698</v>
+        <v>2.338709831237793</v>
       </c>
       <c r="E1">
-        <v>1.207227796152935</v>
+        <v>1.075323820114136</v>
       </c>
     </row>
   </sheetData>
